--- a/data/trans_orig/P14A28-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3B6504-9E16-42B8-B66B-87DE86A6F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD80B1B6-E53F-4977-85B4-1AB52F2893A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3045EA73-9520-4C6F-99C6-96F98627E028}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09D5F8C8-0D8E-4DB2-BA24-6F40136D9AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,19 +84,19 @@
     <t>64,8%</t>
   </si>
   <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,19 +114,19 @@
     <t>35,2%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>70,51%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -195,55 +195,55 @@
     <t>80,58%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -252,55 +252,55 @@
     <t>75,22%</t>
   </si>
   <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,109 +309,109 @@
     <t>75,0%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -423,313 +423,313 @@
     <t>28,1%</t>
   </si>
   <si>
-    <t>71,12%</t>
+    <t>72,27%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>58,83%</t>
+    <t>60,06%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>71,9%</t>
   </si>
   <si>
-    <t>28,88%</t>
+    <t>27,73%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>41,17%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
   </si>
   <si>
     <t>64,21%</t>
   </si>
   <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>35,79%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194D12B7-E223-4728-B529-2522A467336A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF4E6E2-FF5C-4B84-AD96-D3B732773241}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2204,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C194454-89EA-42C8-834A-EDB6ED2C0FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682B0AF-D3F2-4C62-BAB4-CC2F6DF8E0C8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A28-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A28-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD80B1B6-E53F-4977-85B4-1AB52F2893A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E175B030-3168-49F4-A7E3-C0F5B305BB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09D5F8C8-0D8E-4DB2-BA24-6F40136D9AF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8760367-96CC-4E83-AA52-5CD2FE134522}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
   <si>
     <t>Población que recibe medicación o terapia por artritis en 2012 (Tasa respuesta: 8,62%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,7 +75,7 @@
     <t>87,14%</t>
   </si>
   <si>
-    <t>37,26%</t>
+    <t>45,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,19 +84,19 @@
     <t>64,8%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,199 +108,199 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>62,74%</t>
+    <t>54,73%</t>
   </si>
   <si>
     <t>35,2%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>75,22%</t>
   </si>
   <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,427 +309,415 @@
     <t>75,0%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>90,5%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>9,5%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por artritis en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población que recibe medicación o terapia por artritis en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>72,27%</t>
+    <t>71,79%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>60,06%</t>
+    <t>67,78%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>71,9%</t>
   </si>
   <si>
-    <t>27,73%</t>
+    <t>28,21%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>39,94%</t>
+    <t>32,22%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
   </si>
   <si>
     <t>64,21%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>69,74%</t>
   </si>
   <si>
     <t>35,79%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>30,26%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF4E6E2-FF5C-4B84-AD96-D3B732773241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8075C28F-9EAB-40D1-9DA2-A92FA517122B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,10 +1906,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1924,13 @@
         <v>10887</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -1951,13 +1939,13 @@
         <v>14860</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -1966,13 +1954,13 @@
         <v>25747</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2028,13 @@
         <v>133348</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>341</v>
@@ -2055,13 +2043,13 @@
         <v>369200</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>462</v>
@@ -2070,13 +2058,13 @@
         <v>502547</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2079,13 @@
         <v>40731</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -2106,13 +2094,13 @@
         <v>68536</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -2121,13 +2109,13 @@
         <v>109268</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,7 +2171,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682B0AF-D3F2-4C62-BAB4-CC2F6DF8E0C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B7E8B4-90CB-4793-B4B8-90FFF27B1C79}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2221,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2328,13 +2316,13 @@
         <v>2210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -2343,10 +2331,10 @@
         <v>11857</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2358,13 +2346,13 @@
         <v>14067</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,10 +2367,10 @@
         <v>5654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -2394,13 +2382,13 @@
         <v>1020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2409,13 +2397,13 @@
         <v>6674</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2471,13 @@
         <v>13972</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -2498,13 +2486,13 @@
         <v>57661</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -2513,13 +2501,13 @@
         <v>71633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2522,13 @@
         <v>7788</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2549,13 +2537,13 @@
         <v>10821</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -2564,13 +2552,13 @@
         <v>18609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2626,13 @@
         <v>30755</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -2653,13 +2641,13 @@
         <v>87063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -2668,13 +2656,13 @@
         <v>117818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2677,13 @@
         <v>3858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2704,13 +2692,13 @@
         <v>24116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -2719,13 +2707,13 @@
         <v>27973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2781,13 @@
         <v>22690</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2808,13 +2796,13 @@
         <v>53397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -2823,13 +2811,13 @@
         <v>76088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2832,13 @@
         <v>6479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2859,13 +2847,13 @@
         <v>5923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -2874,13 +2862,13 @@
         <v>12401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2936,13 @@
         <v>19017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -2963,13 +2951,13 @@
         <v>66716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -2978,13 +2966,13 @@
         <v>85733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2987,13 @@
         <v>9522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -3014,13 +3002,13 @@
         <v>13509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3029,13 +3017,13 @@
         <v>23031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3091,13 @@
         <v>88644</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>244</v>
@@ -3118,13 +3106,13 @@
         <v>276695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>332</v>
@@ -3133,13 +3121,13 @@
         <v>365338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3142,13 @@
         <v>33301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -3169,13 +3157,13 @@
         <v>55388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -3184,13 +3172,13 @@
         <v>88690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3234,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
